--- a/data/Olmué.xlsx
+++ b/data/Olmué.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Aguas PAcifico SpA</t>
+          <t>Acueducto San Isidro Quilapilún SpA</t>
         </is>
       </c>
       <c r="F4" t="n">

--- a/data/Olmué.xlsx
+++ b/data/Olmué.xlsx
@@ -3751,7 +3751,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F73" t="n">

--- a/data/Olmué.xlsx
+++ b/data/Olmué.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Olmué.xlsx
+++ b/data/Olmué.xlsx
@@ -3751,7 +3751,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F73" t="n">
